--- a/introduction/basic-formatting.xlsx
+++ b/introduction/basic-formatting.xlsx
@@ -189,6 +189,541 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>CEU</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Academy Expenses</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:areaChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Rental</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$3:$D$3</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Teachers wadges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$4:$D$4</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Administrative staff wadges</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$5:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Current expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$6:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>420</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>445</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>430</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Consumables</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$7:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1025</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Solution!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other expenses</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Solution!$B$2:$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>January</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>February</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>March</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Solution!$B$8:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>"€"#,##0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="33876224"/>
+        <c:axId val="33882112"/>
+      </c:areaChart>
+      <c:catAx>
+        <c:axId val="33876224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="33882112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="33882112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Expenses</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0\ [$€-40A]" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="33876224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.31495</cdr:x>
+      <cdr:y>0.53472</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48577</cdr:x>
+      <cdr:y>0.73611</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1685925" y="1466850"/>
+          <a:ext cx="914400" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Grand Total</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>€ 61,315</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -642,7 +1177,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,5 +1355,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>